--- a/data/population/preb.xlsx
+++ b/data/population/preb.xlsx
@@ -470,7 +470,7 @@
         <v>245.2</v>
       </c>
       <c r="D2" t="n">
-        <v>19741</v>
+        <v>19727</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3249</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
         <v>62.2</v>
       </c>
       <c r="D5" t="n">
-        <v>8110</v>
+        <v>8104</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>24.1</v>
       </c>
       <c r="D6" t="n">
-        <v>2661</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         <v>31.1</v>
       </c>
       <c r="D7" t="n">
-        <v>1370</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         <v>72.3</v>
       </c>
       <c r="D8" t="n">
-        <v>8239</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         <v>75.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>1590</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         <v>333.7</v>
       </c>
       <c r="D10" t="n">
-        <v>5771</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         <v>42.3</v>
       </c>
       <c r="D11" t="n">
-        <v>4636</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         <v>367.3</v>
       </c>
       <c r="D12" t="n">
-        <v>3204</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>55</v>
       </c>
       <c r="D13" t="n">
-        <v>5669</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         <v>72</v>
       </c>
       <c r="D14" t="n">
-        <v>5641</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>268.1</v>
       </c>
       <c r="D15" t="n">
-        <v>24346</v>
+        <v>24370</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         <v>91.2</v>
       </c>
       <c r="D16" t="n">
-        <v>12818</v>
+        <v>12823</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         <v>30.6</v>
       </c>
       <c r="D17" t="n">
-        <v>1759</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         <v>94.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>48847</v>
+        <v>48679</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         <v>78</v>
       </c>
       <c r="D19" t="n">
-        <v>7875</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>241</v>
       </c>
       <c r="D20" t="n">
-        <v>11681</v>
+        <v>11718</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         <v>131.5</v>
       </c>
       <c r="D21" t="n">
-        <v>4542</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         <v>24.5</v>
       </c>
       <c r="D22" t="n">
-        <v>2135</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         <v>32.1</v>
       </c>
       <c r="D23" t="n">
-        <v>2377</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         <v>33.7</v>
       </c>
       <c r="D24" t="n">
-        <v>3984</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         <v>156</v>
       </c>
       <c r="D25" t="n">
-        <v>3219</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         <v>339.7</v>
       </c>
       <c r="D26" t="n">
-        <v>14337</v>
+        <v>14279</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         <v>34.4</v>
       </c>
       <c r="D27" t="n">
-        <v>2650</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         <v>145</v>
       </c>
       <c r="D28" t="n">
-        <v>4324</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         <v>17.5</v>
       </c>
       <c r="D29" t="n">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         <v>103.1</v>
       </c>
       <c r="D30" t="n">
-        <v>3883</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         <v>31.7</v>
       </c>
       <c r="D31" t="n">
-        <v>2266</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         <v>117.5</v>
       </c>
       <c r="D32" t="n">
-        <v>7818</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         <v>31.1</v>
       </c>
       <c r="D33" t="n">
-        <v>1287</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         <v>33.3</v>
       </c>
       <c r="D34" t="n">
-        <v>6333</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         <v>110.2</v>
       </c>
       <c r="D35" t="n">
-        <v>3570</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         <v>72.3</v>
       </c>
       <c r="D36" t="n">
-        <v>36792</v>
+        <v>36905</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         <v>28.4</v>
       </c>
       <c r="D37" t="n">
-        <v>2862</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         <v>105</v>
       </c>
       <c r="D38" t="n">
-        <v>8849</v>
+        <v>8882</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         <v>40</v>
       </c>
       <c r="D39" t="n">
-        <v>7017</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         <v>153.3</v>
       </c>
       <c r="D40" t="n">
-        <v>7666</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         <v>29.1</v>
       </c>
       <c r="D41" t="n">
-        <v>4195</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         <v>116.2</v>
       </c>
       <c r="D42" t="n">
-        <v>2800</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         <v>74.59999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>8466</v>
+        <v>8476</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         <v>90.09999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>2495</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         <v>66.8</v>
       </c>
       <c r="D45" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         <v>37.4</v>
       </c>
       <c r="D46" t="n">
-        <v>2077</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         <v>133.8</v>
       </c>
       <c r="D47" t="n">
-        <v>21279</v>
+        <v>21333</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         <v>21.8</v>
       </c>
       <c r="D48" t="n">
-        <v>3902</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         <v>53.7</v>
       </c>
       <c r="D49" t="n">
-        <v>11755</v>
+        <v>11723</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         <v>18.1</v>
       </c>
       <c r="D50" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         <v>32.5</v>
       </c>
       <c r="D51" t="n">
-        <v>2997</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         <v>58.6</v>
       </c>
       <c r="D52" t="n">
-        <v>8980</v>
+        <v>8963</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         <v>194.9</v>
       </c>
       <c r="D53" t="n">
-        <v>4874</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         <v>293.6</v>
       </c>
       <c r="D54" t="n">
-        <v>11723</v>
+        <v>11729</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         <v>98.8</v>
       </c>
       <c r="D55" t="n">
-        <v>7707</v>
+        <v>7695</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         <v>480</v>
       </c>
       <c r="D56" t="n">
-        <v>13354</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         <v>227</v>
       </c>
       <c r="D57" t="n">
-        <v>17587</v>
+        <v>17599</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         <v>28.6</v>
       </c>
       <c r="D58" t="n">
-        <v>16717</v>
+        <v>16647</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         <v>75.8</v>
       </c>
       <c r="D59" t="n">
-        <v>21653</v>
+        <v>21758</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         <v>68.8</v>
       </c>
       <c r="D60" t="n">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         <v>36.3</v>
       </c>
       <c r="D61" t="n">
-        <v>2456</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         <v>265.6</v>
       </c>
       <c r="D62" t="n">
-        <v>29953</v>
+        <v>29793</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         <v>146.5</v>
       </c>
       <c r="D63" t="n">
-        <v>5228</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         <v>71.5</v>
       </c>
       <c r="D64" t="n">
-        <v>6554</v>
+        <v>6547</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         <v>192.6</v>
       </c>
       <c r="D65" t="n">
-        <v>4061</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         <v>19.7</v>
       </c>
       <c r="D66" t="n">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         <v>555.4</v>
       </c>
       <c r="D67" t="n">
-        <v>15620</v>
+        <v>15623</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         <v>102.7</v>
       </c>
       <c r="D68" t="n">
-        <v>3631</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         <v>24.1</v>
       </c>
       <c r="D69" t="n">
-        <v>6469</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         <v>303.2</v>
       </c>
       <c r="D70" t="n">
-        <v>53440</v>
+        <v>53462</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         <v>58.3</v>
       </c>
       <c r="D71" t="n">
-        <v>2443</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         <v>56.1</v>
       </c>
       <c r="D72" t="n">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         <v>89.7</v>
       </c>
       <c r="D73" t="n">
-        <v>3039</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="74">
@@ -1766,7 +1766,7 @@
         <v>150.9</v>
       </c>
       <c r="D74" t="n">
-        <v>56784</v>
+        <v>56639</v>
       </c>
     </row>
     <row r="75">
@@ -1784,7 +1784,7 @@
         <v>256.3</v>
       </c>
       <c r="D75" t="n">
-        <v>7970</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="76">
@@ -1820,7 +1820,7 @@
         <v>286.5</v>
       </c>
       <c r="D77" t="n">
-        <v>25775</v>
+        <v>25833</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         <v>49</v>
       </c>
       <c r="D78" t="n">
-        <v>4873</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         <v>22.9</v>
       </c>
       <c r="D79" t="n">
-        <v>1661</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="80">
@@ -1874,7 +1874,7 @@
         <v>197.5</v>
       </c>
       <c r="D80" t="n">
-        <v>13059</v>
+        <v>12976</v>
       </c>
     </row>
     <row r="81">
@@ -1892,7 +1892,7 @@
         <v>62.1</v>
       </c>
       <c r="D81" t="n">
-        <v>8518</v>
+        <v>8561</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         <v>122.9</v>
       </c>
       <c r="D82" t="n">
-        <v>10404</v>
+        <v>10312</v>
       </c>
     </row>
     <row r="83">
@@ -1928,7 +1928,7 @@
         <v>221.4</v>
       </c>
       <c r="D83" t="n">
-        <v>15692</v>
+        <v>15720</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         <v>275</v>
       </c>
       <c r="D84" t="n">
-        <v>293822</v>
+        <v>293218</v>
       </c>
     </row>
     <row r="85">
@@ -1964,7 +1964,7 @@
         <v>78.90000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>2561</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="86">
@@ -1982,7 +1982,7 @@
         <v>107.2</v>
       </c>
       <c r="D86" t="n">
-        <v>11214</v>
+        <v>11140</v>
       </c>
     </row>
     <row r="87">
@@ -2000,7 +2000,7 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>3647</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2018,7 @@
         <v>173.1</v>
       </c>
       <c r="D88" t="n">
-        <v>14694</v>
+        <v>14699</v>
       </c>
     </row>
     <row r="89">
@@ -2036,7 +2036,7 @@
         <v>166.8</v>
       </c>
       <c r="D89" t="n">
-        <v>3711</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="90">
@@ -2054,7 +2054,7 @@
         <v>134.5</v>
       </c>
       <c r="D90" t="n">
-        <v>1796</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="91">
@@ -2072,7 +2072,7 @@
         <v>84.40000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>2967</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="92">
@@ -2090,7 +2090,7 @@
         <v>109.5</v>
       </c>
       <c r="D92" t="n">
-        <v>1469</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="93">
@@ -2108,7 +2108,7 @@
         <v>74.90000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>5949</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="94">
@@ -2126,7 +2126,7 @@
         <v>72.8</v>
       </c>
       <c r="D94" t="n">
-        <v>4046</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="95">
@@ -2144,7 +2144,7 @@
         <v>36.9</v>
       </c>
       <c r="D95" t="n">
-        <v>2024</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="96">
@@ -2162,7 +2162,7 @@
         <v>147.5</v>
       </c>
       <c r="D96" t="n">
-        <v>112838</v>
+        <v>113004</v>
       </c>
     </row>
     <row r="97">
@@ -2180,7 +2180,7 @@
         <v>29.8</v>
       </c>
       <c r="D97" t="n">
-        <v>4026</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="98">
@@ -2198,7 +2198,7 @@
         <v>77.59999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>16785</v>
+        <v>16792</v>
       </c>
     </row>
     <row r="99">
@@ -2216,7 +2216,7 @@
         <v>22.4</v>
       </c>
       <c r="D99" t="n">
-        <v>8481</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2234,7 @@
         <v>108.9</v>
       </c>
       <c r="D100" t="n">
-        <v>8446</v>
+        <v>8452</v>
       </c>
     </row>
     <row r="101">
@@ -2252,7 +2252,7 @@
         <v>26.4</v>
       </c>
       <c r="D101" t="n">
-        <v>3579</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="102">
@@ -2270,7 +2270,7 @@
         <v>12.5</v>
       </c>
       <c r="D102" t="n">
-        <v>7013</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         <v>62.8</v>
       </c>
       <c r="D103" t="n">
-        <v>5057</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="104">
@@ -2306,7 +2306,7 @@
         <v>31.3</v>
       </c>
       <c r="D104" t="n">
-        <v>2671</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="105">
@@ -2324,7 +2324,7 @@
         <v>48</v>
       </c>
       <c r="D105" t="n">
-        <v>3064</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="106">
@@ -2342,7 +2342,7 @@
         <v>112.2</v>
       </c>
       <c r="D106" t="n">
-        <v>4553</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="107">
@@ -2360,7 +2360,7 @@
         <v>73.40000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>3146</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         <v>61.4</v>
       </c>
       <c r="D108" t="n">
-        <v>5489</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="109">
@@ -2396,7 +2396,7 @@
         <v>144.5</v>
       </c>
       <c r="D109" t="n">
-        <v>5981</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="110">
@@ -2414,7 +2414,7 @@
         <v>53.5</v>
       </c>
       <c r="D110" t="n">
-        <v>4267</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="111">
@@ -2432,7 +2432,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>18547</v>
+        <v>18543</v>
       </c>
     </row>
     <row r="112">
@@ -2450,7 +2450,7 @@
         <v>38.8</v>
       </c>
       <c r="D112" t="n">
-        <v>3407</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="113">
@@ -2468,7 +2468,7 @@
         <v>28.3</v>
       </c>
       <c r="D113" t="n">
-        <v>5392</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="114">
@@ -2486,7 +2486,7 @@
         <v>43.4</v>
       </c>
       <c r="D114" t="n">
-        <v>2641</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="115">
@@ -2504,7 +2504,7 @@
         <v>279.5</v>
       </c>
       <c r="D115" t="n">
-        <v>31835</v>
+        <v>31824</v>
       </c>
     </row>
     <row r="116">
@@ -2522,7 +2522,7 @@
         <v>235.7</v>
       </c>
       <c r="D116" t="n">
-        <v>37339</v>
+        <v>37615</v>
       </c>
     </row>
     <row r="117">
@@ -2540,7 +2540,7 @@
         <v>6.9</v>
       </c>
       <c r="D117" t="n">
-        <v>1613</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="118">
@@ -2558,7 +2558,7 @@
         <v>33.2</v>
       </c>
       <c r="D118" t="n">
-        <v>4125</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="119">
@@ -2576,7 +2576,7 @@
         <v>141.6</v>
       </c>
       <c r="D119" t="n">
-        <v>11913</v>
+        <v>11890</v>
       </c>
     </row>
     <row r="120">
@@ -2594,7 +2594,7 @@
         <v>36.2</v>
       </c>
       <c r="D120" t="n">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121">
@@ -2612,7 +2612,7 @@
         <v>75.8</v>
       </c>
       <c r="D121" t="n">
-        <v>7508</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="122">
@@ -2630,7 +2630,7 @@
         <v>44.6</v>
       </c>
       <c r="D122" t="n">
-        <v>18441</v>
+        <v>18432</v>
       </c>
     </row>
     <row r="123">
@@ -2648,7 +2648,7 @@
         <v>223.3</v>
       </c>
       <c r="D123" t="n">
-        <v>6222</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="124">
@@ -2666,7 +2666,7 @@
         <v>60.6</v>
       </c>
       <c r="D124" t="n">
-        <v>3629</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="125">
@@ -2684,7 +2684,7 @@
         <v>46</v>
       </c>
       <c r="D125" t="n">
-        <v>1851</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="126">
@@ -2702,7 +2702,7 @@
         <v>103.9</v>
       </c>
       <c r="D126" t="n">
-        <v>2342</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="127">
@@ -2720,7 +2720,7 @@
         <v>37.5</v>
       </c>
       <c r="D127" t="n">
-        <v>4486</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="128">
@@ -2738,7 +2738,7 @@
         <v>34</v>
       </c>
       <c r="D128" t="n">
-        <v>6374</v>
+        <v>6386</v>
       </c>
     </row>
     <row r="129">
@@ -2756,7 +2756,7 @@
         <v>269.9</v>
       </c>
       <c r="D129" t="n">
-        <v>16699</v>
+        <v>16753</v>
       </c>
     </row>
     <row r="130">
@@ -2774,7 +2774,7 @@
         <v>40.6</v>
       </c>
       <c r="D130" t="n">
-        <v>5245</v>
+        <v>5302</v>
       </c>
     </row>
     <row r="131">
@@ -2792,7 +2792,7 @@
         <v>87</v>
       </c>
       <c r="D131" t="n">
-        <v>3800</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="132">
@@ -2810,7 +2810,7 @@
         <v>58.1</v>
       </c>
       <c r="D132" t="n">
-        <v>6791</v>
+        <v>6732</v>
       </c>
     </row>
     <row r="133">
@@ -2828,7 +2828,7 @@
         <v>66.7</v>
       </c>
       <c r="D133" t="n">
-        <v>23531</v>
+        <v>23509</v>
       </c>
     </row>
     <row r="134">
@@ -2846,7 +2846,7 @@
         <v>107.7</v>
       </c>
       <c r="D134" t="n">
-        <v>5892</v>
+        <v>5871</v>
       </c>
     </row>
     <row r="135">
@@ -2864,7 +2864,7 @@
         <v>51.2</v>
       </c>
       <c r="D135" t="n">
-        <v>7711</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="136">
@@ -2882,7 +2882,7 @@
         <v>52</v>
       </c>
       <c r="D136" t="n">
-        <v>4147</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="137">
@@ -2900,7 +2900,7 @@
         <v>34.1</v>
       </c>
       <c r="D137" t="n">
-        <v>5084</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="138">
@@ -2918,7 +2918,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>6168</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="139">
@@ -2929,14 +2929,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ZD Bled</t>
+          <t>ZD Radovljica</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>118.7</v>
       </c>
       <c r="D139" t="n">
-        <v>19342</v>
+        <v>19325</v>
       </c>
     </row>
     <row r="140">
@@ -2954,7 +2954,7 @@
         <v>63.4</v>
       </c>
       <c r="D140" t="n">
-        <v>11276</v>
+        <v>11228</v>
       </c>
     </row>
     <row r="141">
@@ -2972,7 +2972,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>1249</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="142">
@@ -2990,7 +2990,7 @@
         <v>30.1</v>
       </c>
       <c r="D142" t="n">
-        <v>2347</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="143">
@@ -3008,7 +3008,7 @@
         <v>29.5</v>
       </c>
       <c r="D143" t="n">
-        <v>4372</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="144">
@@ -3026,7 +3026,7 @@
         <v>153.6</v>
       </c>
       <c r="D144" t="n">
-        <v>9634</v>
+        <v>9684</v>
       </c>
     </row>
     <row r="145">
@@ -3044,7 +3044,7 @@
         <v>59.3</v>
       </c>
       <c r="D145" t="n">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="146">
@@ -3062,7 +3062,7 @@
         <v>71.5</v>
       </c>
       <c r="D146" t="n">
-        <v>11396</v>
+        <v>11438</v>
       </c>
     </row>
     <row r="147">
@@ -3080,7 +3080,7 @@
         <v>40.1</v>
       </c>
       <c r="D147" t="n">
-        <v>3123</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="148">
@@ -3098,7 +3098,7 @@
         <v>39.6</v>
       </c>
       <c r="D148" t="n">
-        <v>3084</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="149">
@@ -3116,7 +3116,7 @@
         <v>60.8</v>
       </c>
       <c r="D149" t="n">
-        <v>7063</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="150">
@@ -3134,7 +3134,7 @@
         <v>58.2</v>
       </c>
       <c r="D150" t="n">
-        <v>1390</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="151">
@@ -3152,7 +3152,7 @@
         <v>64.5</v>
       </c>
       <c r="D151" t="n">
-        <v>4534</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="152">
@@ -3170,7 +3170,7 @@
         <v>146.7</v>
       </c>
       <c r="D152" t="n">
-        <v>3877</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="153">
@@ -3188,7 +3188,7 @@
         <v>14.9</v>
       </c>
       <c r="D153" t="n">
-        <v>6219</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="154">
@@ -3206,7 +3206,7 @@
         <v>40.3</v>
       </c>
       <c r="D154" t="n">
-        <v>8818</v>
+        <v>8893</v>
       </c>
     </row>
     <row r="155">
@@ -3224,7 +3224,7 @@
         <v>65</v>
       </c>
       <c r="D155" t="n">
-        <v>8352</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="156">
@@ -3242,7 +3242,7 @@
         <v>96</v>
       </c>
       <c r="D156" t="n">
-        <v>7223</v>
+        <v>7247</v>
       </c>
     </row>
     <row r="157">
@@ -3260,7 +3260,7 @@
         <v>222.3</v>
       </c>
       <c r="D157" t="n">
-        <v>19349</v>
+        <v>19378</v>
       </c>
     </row>
     <row r="158">
@@ -3278,7 +3278,7 @@
         <v>49.1</v>
       </c>
       <c r="D158" t="n">
-        <v>2943</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="159">
@@ -3296,7 +3296,7 @@
         <v>272.2</v>
       </c>
       <c r="D159" t="n">
-        <v>17651</v>
+        <v>17661</v>
       </c>
     </row>
     <row r="160">
@@ -3314,7 +3314,7 @@
         <v>217.4</v>
       </c>
       <c r="D160" t="n">
-        <v>13818</v>
+        <v>13842</v>
       </c>
     </row>
     <row r="161">
@@ -3332,7 +3332,7 @@
         <v>60.4</v>
       </c>
       <c r="D161" t="n">
-        <v>3413</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="162">
@@ -3350,7 +3350,7 @@
         <v>146</v>
       </c>
       <c r="D162" t="n">
-        <v>23535</v>
+        <v>23622</v>
       </c>
     </row>
     <row r="163">
@@ -3368,7 +3368,7 @@
         <v>43.3</v>
       </c>
       <c r="D163" t="n">
-        <v>11620</v>
+        <v>11666</v>
       </c>
     </row>
     <row r="164">
@@ -3386,7 +3386,7 @@
         <v>173.7</v>
       </c>
       <c r="D164" t="n">
-        <v>16671</v>
+        <v>16716</v>
       </c>
     </row>
     <row r="165">
@@ -3404,7 +3404,7 @@
         <v>260.1</v>
       </c>
       <c r="D165" t="n">
-        <v>25969</v>
+        <v>26042</v>
       </c>
     </row>
     <row r="166">
@@ -3422,7 +3422,7 @@
         <v>97.8</v>
       </c>
       <c r="D166" t="n">
-        <v>15241</v>
+        <v>15221</v>
       </c>
     </row>
     <row r="167">
@@ -3440,7 +3440,7 @@
         <v>107.7</v>
       </c>
       <c r="D167" t="n">
-        <v>10378</v>
+        <v>10361</v>
       </c>
     </row>
     <row r="168">
@@ -3458,7 +3458,7 @@
         <v>34.2</v>
       </c>
       <c r="D168" t="n">
-        <v>3513</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="169">
@@ -3476,7 +3476,7 @@
         <v>18.2</v>
       </c>
       <c r="D169" t="n">
-        <v>3273</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="170">
@@ -3494,7 +3494,7 @@
         <v>94.90000000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>5664</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="171">
@@ -3512,7 +3512,7 @@
         <v>49.5</v>
       </c>
       <c r="D171" t="n">
-        <v>2232</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="172">
@@ -3530,7 +3530,7 @@
         <v>102.8</v>
       </c>
       <c r="D172" t="n">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="173">
@@ -3548,7 +3548,7 @@
         <v>95.59999999999999</v>
       </c>
       <c r="D173" t="n">
-        <v>8782</v>
+        <v>8822</v>
       </c>
     </row>
     <row r="174">
@@ -3566,7 +3566,7 @@
         <v>32.7</v>
       </c>
       <c r="D174" t="n">
-        <v>1924</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="175">
@@ -3584,7 +3584,7 @@
         <v>34</v>
       </c>
       <c r="D175" t="n">
-        <v>4056</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="176">
@@ -3602,7 +3602,7 @@
         <v>28.1</v>
       </c>
       <c r="D176" t="n">
-        <v>4451</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="177">
@@ -3620,7 +3620,7 @@
         <v>28.5</v>
       </c>
       <c r="D177" t="n">
-        <v>3880</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="178">
@@ -3638,7 +3638,7 @@
         <v>37.2</v>
       </c>
       <c r="D178" t="n">
-        <v>2336</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="179">
@@ -3656,7 +3656,7 @@
         <v>25.9</v>
       </c>
       <c r="D179" t="n">
-        <v>2215</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="180">
@@ -3674,7 +3674,7 @@
         <v>17.6</v>
       </c>
       <c r="D180" t="n">
-        <v>1193</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="181">
@@ -3692,7 +3692,7 @@
         <v>51.3</v>
       </c>
       <c r="D181" t="n">
-        <v>2850</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="182">
@@ -3710,7 +3710,7 @@
         <v>30.7</v>
       </c>
       <c r="D182" t="n">
-        <v>2105</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="183">
@@ -3728,7 +3728,7 @@
         <v>38.1</v>
       </c>
       <c r="D183" t="n">
-        <v>2032</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="184">
@@ -3746,7 +3746,7 @@
         <v>34.8</v>
       </c>
       <c r="D184" t="n">
-        <v>1674</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="185">
@@ -3764,7 +3764,7 @@
         <v>38.8</v>
       </c>
       <c r="D185" t="n">
-        <v>3949</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="186">
@@ -3782,7 +3782,7 @@
         <v>382.3</v>
       </c>
       <c r="D186" t="n">
-        <v>10969</v>
+        <v>10953</v>
       </c>
     </row>
     <row r="187">
@@ -3800,7 +3800,7 @@
         <v>58</v>
       </c>
       <c r="D187" t="n">
-        <v>15917</v>
+        <v>15893</v>
       </c>
     </row>
     <row r="188">
@@ -3818,7 +3818,7 @@
         <v>163.3</v>
       </c>
       <c r="D188" t="n">
-        <v>13407</v>
+        <v>13413</v>
       </c>
     </row>
     <row r="189">
@@ -3836,7 +3836,7 @@
         <v>22.9</v>
       </c>
       <c r="D189" t="n">
-        <v>1375</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="190">
@@ -3847,14 +3847,14 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>OZG Gorenjske</t>
+          <t>ZD Tržič</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>155.4</v>
       </c>
       <c r="D190" t="n">
-        <v>15031</v>
+        <v>15011</v>
       </c>
     </row>
     <row r="191">
@@ -3872,7 +3872,7 @@
         <v>8.6</v>
       </c>
       <c r="D191" t="n">
-        <v>3899</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="192">
@@ -3890,7 +3890,7 @@
         <v>23.8</v>
       </c>
       <c r="D192" t="n">
-        <v>3178</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="193">
@@ -3908,7 +3908,7 @@
         <v>83.5</v>
       </c>
       <c r="D193" t="n">
-        <v>33558</v>
+        <v>33548</v>
       </c>
     </row>
     <row r="194">
@@ -3926,7 +3926,7 @@
         <v>18.7</v>
       </c>
       <c r="D194" t="n">
-        <v>1381</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="195">
@@ -3944,7 +3944,7 @@
         <v>103.2</v>
       </c>
       <c r="D195" t="n">
-        <v>4522</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="196">
@@ -3962,7 +3962,7 @@
         <v>12</v>
       </c>
       <c r="D196" t="n">
-        <v>1343</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="197">
@@ -3980,7 +3980,7 @@
         <v>80</v>
       </c>
       <c r="D197" t="n">
-        <v>5619</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="198">
@@ -3998,7 +3998,7 @@
         <v>107.4</v>
       </c>
       <c r="D198" t="n">
-        <v>5764</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="199">
@@ -4016,7 +4016,7 @@
         <v>59.4</v>
       </c>
       <c r="D199" t="n">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="200">
@@ -4034,7 +4034,7 @@
         <v>31.4</v>
       </c>
       <c r="D200" t="n">
-        <v>4943</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="201">
@@ -4052,7 +4052,7 @@
         <v>75.3</v>
       </c>
       <c r="D201" t="n">
-        <v>9064</v>
+        <v>9063</v>
       </c>
     </row>
     <row r="202">
@@ -4070,7 +4070,7 @@
         <v>53.3</v>
       </c>
       <c r="D202" t="n">
-        <v>2675</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="203">
@@ -4088,7 +4088,7 @@
         <v>115.6</v>
       </c>
       <c r="D203" t="n">
-        <v>17654</v>
+        <v>17684</v>
       </c>
     </row>
     <row r="204">
@@ -4106,7 +4106,7 @@
         <v>50.1</v>
       </c>
       <c r="D204" t="n">
-        <v>2634</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="205">
@@ -4124,7 +4124,7 @@
         <v>147.1</v>
       </c>
       <c r="D205" t="n">
-        <v>16328</v>
+        <v>16307</v>
       </c>
     </row>
     <row r="206">
@@ -4142,7 +4142,7 @@
         <v>117.1</v>
       </c>
       <c r="D206" t="n">
-        <v>21492</v>
+        <v>21477</v>
       </c>
     </row>
     <row r="207">
@@ -4160,7 +4160,7 @@
         <v>19.3</v>
       </c>
       <c r="D207" t="n">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="208">
@@ -4178,7 +4178,7 @@
         <v>163.7</v>
       </c>
       <c r="D208" t="n">
-        <v>6684</v>
+        <v>6685</v>
       </c>
     </row>
     <row r="209">
@@ -4196,7 +4196,7 @@
         <v>38</v>
       </c>
       <c r="D209" t="n">
-        <v>1303</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="210">
@@ -4214,7 +4214,7 @@
         <v>49.2</v>
       </c>
       <c r="D210" t="n">
-        <v>4987</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="211">
@@ -4232,7 +4232,7 @@
         <v>42.6</v>
       </c>
       <c r="D211" t="n">
-        <v>4478</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="212">
@@ -4250,7 +4250,7 @@
         <v>67</v>
       </c>
       <c r="D212" t="n">
-        <v>6611</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="213">
@@ -4268,7 +4268,7 @@
         <v>164.3</v>
       </c>
       <c r="D213" t="n">
-        <v>4755</v>
+        <v>4719</v>
       </c>
     </row>
   </sheetData>
